--- a/jacobi/src/test/resources/jacobi/test/data/BasicStatsTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/BasicStatsTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>#0</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
   </si>
 </sst>
 </file>
@@ -369,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C30"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,6 +636,88 @@
         <v>269.25334004513871</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>_xlfn.STDEV.P(A3:A14)</f>
+        <v>13.086074168152274</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:C34" si="0">_xlfn.STDEV.P(B3:B14)</f>
+        <v>16.996227518078857</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>16.408940856896848</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>COVAR(A3:A14,A3:A14)</f>
+        <v>171.24533713438223</v>
+      </c>
+      <c r="B38">
+        <f>COVAR(A3:A14,B3:B14)</f>
+        <v>-97.866737319896473</v>
+      </c>
+      <c r="C38">
+        <f>COVAR(A3:A14,C3:C14)</f>
+        <v>-117.21077105689785</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>B38</f>
+        <v>-97.866737319896473</v>
+      </c>
+      <c r="B39">
+        <f>COVAR(B3:B14,B3:B14)</f>
+        <v>288.87174984630104</v>
+      </c>
+      <c r="C39">
+        <f>COVAR(B3:B14,C3:C14)</f>
+        <v>195.62938128684183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>C38</f>
+        <v>-117.21077105689785</v>
+      </c>
+      <c r="B40">
+        <f>C39</f>
+        <v>195.62938128684183</v>
+      </c>
+      <c r="C40">
+        <f>COVAR(C3:C14,C3:C14)</f>
+        <v>269.25334004513871</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -637,10 +725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48:E48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,6 +1394,164 @@
       <c r="E48">
         <f t="shared" si="3"/>
         <v>269.25842237397137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f>_xlfn.STDEV.P(A3:A32)</f>
+        <v>18.521481912750779</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52:E52" si="4">_xlfn.STDEV.P(B3:B32)</f>
+        <v>13.60568939859203</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="4"/>
+        <v>19.496495434816744</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="4"/>
+        <v>18.999190071497328</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="4"/>
+        <v>16.409095720787644</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>COVAR($A3:$A32,A3:A32)</f>
+        <v>343.0452922443543</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56:E56" si="5">COVAR($A3:$A32,B3:B32)</f>
+        <v>-110.73041197192697</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="5"/>
+        <v>-74.327020355049385</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="5"/>
+        <v>-9.7114255121856186</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="5"/>
+        <v>45.888697926989572</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>COVAR($B3:$B32,A3:A32)</f>
+        <v>-110.73041197192697</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57:E57" si="6">COVAR($B3:$B32,B3:B32)</f>
+        <v>185.11478401095954</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="6"/>
+        <v>-8.0877650721547223</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="6"/>
+        <v>-30.551399947679936</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="6"/>
+        <v>8.0193074357076668</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>COVAR($C3:$C32,A3:A32)</f>
+        <v>-74.327020355049385</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ref="B58:E58" si="7">COVAR($C3:$C32,B3:B32)</f>
+        <v>-8.0877650721547223</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="7"/>
+        <v>380.11333423983007</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="7"/>
+        <v>97.009153202278441</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="7"/>
+        <v>16.802649372470089</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>COVAR($D3:$D32,A3:A32)</f>
+        <v>-9.7114255121856186</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ref="B59:E59" si="8">COVAR($D3:$D32,B3:B32)</f>
+        <v>-30.551399947679936</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="8"/>
+        <v>97.009153202278441</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="8"/>
+        <v>360.96922337288254</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="8"/>
+        <v>-49.220958205724706</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f>COVAR($E3:$E32,A3:A32)</f>
+        <v>45.888697926989572</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ref="B60:E60" si="9">COVAR($E3:$E32,B3:B32)</f>
+        <v>8.0193074357076668</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="9"/>
+        <v>16.802649372470089</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="9"/>
+        <v>-49.220958205724706</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="9"/>
+        <v>269.25842237397131</v>
       </c>
     </row>
   </sheetData>
@@ -1326,1261 +1572,1261 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*60-30</f>
-        <v>-26.147394955634994</v>
+        <v>29.823235269796115</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:J16" ca="1" si="0">RAND()*60-30</f>
-        <v>24.109225674547261</v>
+        <v>-10.066919156714572</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>27.553935751507204</v>
+        <v>-20.671947559404515</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>25.757682270125649</v>
+        <v>-22.693009294718195</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.686142158874496</v>
+        <v>15.023804810000826</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>27.272317691697204</v>
+        <v>26.307467068178084</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>29.417182663510616</v>
+        <v>-10.285882232626605</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.918994644188732</v>
+        <v>-27.083807999165924</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>24.831898619678839</v>
+        <v>-28.437825911109442</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>28.973465023464833</v>
+        <v>1.339800782863751</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:J30" ca="1" si="1">RAND()*60-30</f>
-        <v>16.491183424604316</v>
+        <v>28.005846356016065</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.275052270476234</v>
+        <v>24.73584736624597</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.1464454938508482</v>
+        <v>-20.410172849022786</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.628639280314534</v>
+        <v>-8.4823299810189496</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.969402256602905</v>
+        <v>1.1905012741127194</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.440526023515432</v>
+        <v>14.829878814015821</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>28.762571590320746</v>
+        <v>5.8050793507149336</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.88440455961176</v>
+        <v>-6.0311270514368331</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.228044095555092</v>
+        <v>12.575105790283857</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.284224443975571</v>
+        <v>-17.189928823848206</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>19.371564988422541</v>
+        <v>7.8673520963088421</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>29.916783121053449</v>
+        <v>-2.8364947664163189</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>14.23225050426722</v>
+        <v>20.998960624906552</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.222283512737143</v>
+        <v>-2.5044402023908354</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7698033491144756</v>
+        <v>-16.346724715593517</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8337546245303926</v>
+        <v>-2.3384732040229004</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.166700512664782</v>
+        <v>29.689997443794454</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.6400829974137778</v>
+        <v>26.772466100539347</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.06332946777249</v>
+        <v>-11.345128271852801</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.752757417147464</v>
+        <v>0.50903757343647271</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9602030544876357</v>
+        <v>8.3247658347025464</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.170366801808088</v>
+        <v>-11.602379508252557</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>18.728237514894957</v>
+        <v>27.349788110068239</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.43471316535995896</v>
+        <v>-14.526910785682212</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.5272522027852276</v>
+        <v>-26.258633516735145</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57202074059411956</v>
+        <v>-12.957595890897597</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.421701083508736</v>
+        <v>-5.9542432494073338</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4836815102479655</v>
+        <v>-25.211615910186438</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4987454089266308</v>
+        <v>8.7323517700697337</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.7786803462710026</v>
+        <v>-15.790766861013516</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6167450023587406</v>
+        <v>20.218580791735597</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8276945727325185</v>
+        <v>-8.2014784682413762</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>21.717870305508519</v>
+        <v>9.676257202404706</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.752799704599866</v>
+        <v>-18.906763557102934</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>13.930323885690107</v>
+        <v>-20.092172300326546</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.933186269245716</v>
+        <v>17.216034393937342</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>14.629163877324906</v>
+        <v>-4.7027012056619029</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>17.430910481275788</v>
+        <v>23.017165591351223</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.9581667210473555</v>
+        <v>-17.745349397064466</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>-29.757279293657156</v>
+        <v>27.288757992067694</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.96029341152652137</v>
+        <v>-3.103044151965733</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.964423578623837</v>
+        <v>27.973805776636539</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7843515565205408</v>
+        <v>-19.053580601293422</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.5177474802461219</v>
+        <v>-3.9904210039160972</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>27.655032848024781</v>
+        <v>-8.9627442936705286</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.657135318775282</v>
+        <v>-2.2923620339416644</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6333100227724913</v>
+        <v>10.861809317257901</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.518954088073105</v>
+        <v>-5.5206400619360103</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>27.480088194252858</v>
+        <v>-25.526880948477586</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.650749841090949</v>
+        <v>6.7348812553841526</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.3172292245127437</v>
+        <v>-21.715454288107885</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.676794648450944</v>
+        <v>-20.824223363974401</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.175257870402838</v>
+        <v>-1.5254989767393141</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>21.097211424417026</v>
+        <v>-24.531721952301766</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.175428212438494</v>
+        <v>12.839371250770732</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.1369302270487296</v>
+        <v>-29.030995299214958</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2510764408047166</v>
+        <v>14.062987067939126</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7971194722512109</v>
+        <v>-26.801725289386209</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>21.082392415177566</v>
+        <v>22.063000237022187</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.806769360826607</v>
+        <v>29.558681202682436</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0078697459413029</v>
+        <v>-5.8078287380331588</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3633488434550785</v>
+        <v>19.97223542261343</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.601167296091592</v>
+        <v>-1.1571730162190121</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7475834148255451</v>
+        <v>2.9875749306969652</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>21.337217605460204</v>
+        <v>-27.014212924561743</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2716494958662423</v>
+        <v>26.917685134433455</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1405759114453318</v>
+        <v>10.333366362648697</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>20.316478030472268</v>
+        <v>0.82489010756903269</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.214132372698941</v>
+        <v>-23.546857326613171</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>-28.889656616526779</v>
+        <v>26.504092833738952</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>22.491897012623241</v>
+        <v>3.3317362648006466</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>14.353813601257656</v>
+        <v>8.2657671887388346</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7117194913053169</v>
+        <v>-17.132557608714734</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.673336837959624</v>
+        <v>0.24737953822423009</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.1665063233695676</v>
+        <v>-8.6117603749528051</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>25.767702297351029</v>
+        <v>-24.241857770167517</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>18.903601708277243</v>
+        <v>22.819942107553231</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>12.308864247916418</v>
+        <v>-3.7701474168612563</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.970308871645404</v>
+        <v>6.3660568258164787</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.525364470956212</v>
+        <v>1.5073146468610936</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.374866766850083</v>
+        <v>17.739994879853235</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.582399531907338</v>
+        <v>-6.3778508532995666</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>16.922584826757003</v>
+        <v>24.662496180446936</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>23.957204504824595</v>
+        <v>-26.042858329181747</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>26.692377467333998</v>
+        <v>13.34149319265368</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2817275730495865</v>
+        <v>-21.33129970212574</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>13.258397386201437</v>
+        <v>16.757824077447452</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>13.380542014747029</v>
+        <v>25.996617278499713</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>24.165514961924366</v>
+        <v>24.770605886555408</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>21.023690788675843</v>
+        <v>5.2160927960243839</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.983062368347397</v>
+        <v>15.791856514432695</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>22.844879568050118</v>
+        <v>12.328359398578954</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.6520363567880416</v>
+        <v>7.5830429702544961</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3750917984113471</v>
+        <v>-2.0580019695064564</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2268616402181536</v>
+        <v>4.12200191036505</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.749479014844638</v>
+        <v>-21.088235217511226</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.372511375541329</v>
+        <v>-8.0240682979004099</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8493322259516596</v>
+        <v>-8.0019112163262633</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>10.203045603378726</v>
+        <v>-16.9145185963594</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4965374051698461</v>
+        <v>-14.393029108109856</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>23.716315132074577</v>
+        <v>5.5548117327248221</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.373966686304598</v>
+        <v>-26.514135174951285</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4029619833751781</v>
+        <v>0.11206844211025313</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>14.009512455701</v>
+        <v>-7.9583003776077632</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>28.494760761622018</v>
+        <v>-26.001187546992636</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9198220418412575</v>
+        <v>-13.306531036052633</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.785579810938266</v>
+        <v>27.556031784861098</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7214068599958168</v>
+        <v>-28.367536861657783</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>19.550135565729263</v>
+        <v>21.189261104223888</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.609593492329152</v>
+        <v>1.7558452942363125</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>28.904616157735646</v>
+        <v>15.437932411265599</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.219633355515803</v>
+        <v>-3.9227209779158514</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8402712137914676</v>
+        <v>4.1884671304730716</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.8574883291546449</v>
+        <v>-10.83432874501425</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>13.684319217693705</v>
+        <v>-12.396489073635209</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2184615506598533</v>
+        <v>20.458377331056404</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7092362173631059</v>
+        <v>-17.390927708844714</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.063428314967798</v>
+        <v>6.0198343878060498</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.133411669614986</v>
+        <v>27.110726446223097</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.451635091866578</v>
+        <v>13.583302565491707</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.555770125552542</v>
+        <v>6.3101597515480847</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.2033997505950751</v>
+        <v>-0.21200901801003624</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.086464779086651</v>
+        <v>-20.055162326090361</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.414180697411023</v>
+        <v>-10.871738570333612</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.820572060898559</v>
+        <v>-15.890645105346383</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>29.089388907081286</v>
+        <v>-15.865296048197187</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.817938188945071</v>
+        <v>-17.022054211341906</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>21.763533109662177</v>
+        <v>-27.01715965412162</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.788225995884742</v>
+        <v>15.289791213231972</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.204182950449436</v>
+        <v>-2.9602351382236201</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.481015700484029</v>
+        <v>27.355831624334762</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.027952409463303</v>
+        <v>-9.2018569033258899</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>11.945863724450284</v>
+        <v>29.473716425212295</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.0756014500063102</v>
+        <v>-8.8014108850072219</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.037111991552095</v>
+        <v>12.44498012075745</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.90254309427240642</v>
+        <v>8.3562634376765743</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0445498434400804</v>
+        <v>-29.049451952454298</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4839054787997981</v>
+        <v>-12.681751913873832</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.0468078231225313</v>
+        <v>-9.1828699686507989</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>25.853904995619708</v>
+        <v>8.4998279788270352</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-25.615321310958855</v>
+        <v>-4.5764110319474476</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.9020995387332427</v>
+        <v>-8.8211111380799849</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.8707226972053732</v>
+        <v>-25.624356509423006</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>28.06127057853697</v>
+        <v>6.1504849671004038</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.04652048753664</v>
+        <v>-23.482178559601923</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8647935004701814</v>
+        <v>-24.017644688541118</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77982740314027765</v>
+        <v>-16.509438662241649</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>21.933277706361373</v>
+        <v>20.348509871983239</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>17.996998844882192</v>
+        <v>15.777386440840729</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>-27.407416995902413</v>
+        <v>-28.944503425394288</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.979437747311813</v>
+        <v>-1.8029002025672654</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.1644759992375029</v>
+        <v>-1.8227886066006675</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>27.103439927940904</v>
+        <v>-11.423672317300699</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2639933629953077</v>
+        <v>-14.537688854469351</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.179181928593714</v>
+        <v>-23.368032258271718</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-29.902195095507615</v>
+        <v>18.927752176570969</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>29.63033130848217</v>
+        <v>-18.946455082104201</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>27.12322167889576</v>
+        <v>12.709034097167283</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.8266329461095658</v>
+        <v>24.338328706134668</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>14.550869413158324</v>
+        <v>13.182814541262381</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>12.51532123919705</v>
+        <v>11.665358652783922</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2464578541671898</v>
+        <v>-23.927420174344281</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.1536823608541766</v>
+        <v>1.5154821182342886</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.2679600983706152</v>
+        <v>-26.987795205445671</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-29.237580066733312</v>
+        <v>-14.191456659488246</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>15.22754039437806</v>
+        <v>-28.024693048492825</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.478247590338142</v>
+        <v>27.946469692982852</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.108950236377058</v>
+        <v>22.641934294988509</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>8.630637547935315</v>
+        <v>27.604969731642427</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.2872777311711232</v>
+        <v>-9.4362966825265921</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>13.341277557961213</v>
+        <v>-21.792282476184283</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0841763755335982</v>
+        <v>-1.8131656885889491</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>24.004587213464596</v>
+        <v>-13.51907527940406</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.476432025399077</v>
+        <v>18.038438761699688</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>28.373184699032691</v>
+        <v>-25.079680123165989</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.617246374364537</v>
+        <v>-21.623161085797612</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.4278988041971985</v>
+        <v>29.470238759329646</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>22.301885054302566</v>
+        <v>-8.96447263044697</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>-28.628504601502907</v>
+        <v>-24.967408681905425</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>22.898406480656107</v>
+        <v>-14.531108041296921</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.280372875805355</v>
+        <v>-8.0846522611982365</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.392514429474893</v>
+        <v>15.910521485063867</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>23.604733800970159</v>
+        <v>28.690351974834229</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>18.484245470147073</v>
+        <v>26.260815969685012</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.605347985227347</v>
+        <v>-2.785294665065102</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.918173178577007</v>
+        <v>-26.502163240720101</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>14.617829665222985</v>
+        <v>23.392902459908782</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6242382754240978</v>
+        <v>-26.989152541470386</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>21.979219394276321</v>
+        <v>-23.781068485003015</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.387403434514564</v>
+        <v>13.924132788769242</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>28.067032638955908</v>
+        <v>-0.20856871707313829</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>29.151742577378172</v>
+        <v>-19.144974349797842</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>26.841545486692226</v>
+        <v>28.880642608423209</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>17.600179877348538</v>
+        <v>7.1930853234851568</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>24.931545598868333</v>
+        <v>13.898923317943186</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7032917433599906</v>
+        <v>-26.839889628026381</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2595074122111072</v>
+        <v>14.331063890029242</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.7210353879532043</v>
+        <v>-16.143112856797249</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>26.13746343932398</v>
+        <v>0.30263388442708106</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>-28.913626425743036</v>
+        <v>0.14835371001558073</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>26.029341376027482</v>
+        <v>5.2878110537497491</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>18.625135615870093</v>
+        <v>-26.588019429288462</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3513386473124953</v>
+        <v>-19.731698000156754</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.210225260718058</v>
+        <v>-25.242500646683109</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.768224195914232</v>
+        <v>16.108783964114984</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>11.548217018116574</v>
+        <v>-17.149622194761069</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4160537832467739</v>
+        <v>-10.239650586195886</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>23.683386396080834</v>
+        <v>-24.555240717096435</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>27.175628243599611</v>
+        <v>-8.7063443877236857</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>16.085147145940482</v>
+        <v>-5.7850626017949978</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.6073353014195462</v>
+        <v>27.259390110824008</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.183200579139033</v>
+        <v>-5.0149802056449175</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2337482608729573</v>
+        <v>-11.969553608810614</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5898079487933856</v>
+        <v>14.879119178288256</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9828704516169253</v>
+        <v>13.038113546677025</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.94208147897649</v>
+        <v>-4.4594090111073399</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>11.210413067479791</v>
+        <v>-19.418106664204263</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.2688595187980809</v>
+        <v>-4.1520612248214483</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>29.591262598880341</v>
+        <v>24.984086521839345</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.6677112097603306</v>
+        <v>3.2002910854704254</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.270101636295095</v>
+        <v>-18.707167072862269</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>18.206337630492712</v>
+        <v>9.3169598333699639</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.09725502926532</v>
+        <v>-24.355002174283378</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>19.172228208123265</v>
+        <v>13.675394317817094</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>-25.817247772640997</v>
+        <v>9.2008226967728035</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>21.251121381500951</v>
+        <v>-2.6727407678312147</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.08732098287399</v>
+        <v>29.667611380638121</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>21.983485254920986</v>
+        <v>5.3328560606779405</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2680305149192108</v>
+        <v>-2.5831251270265092</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.482287619254393</v>
+        <v>24.584713120590827</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.373363972362174</v>
+        <v>-16.531158950563068</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.62439319672621</v>
+        <v>7.5104789671288543</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.743189636813081</v>
+        <v>4.328694126004379</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.7989935307125045</v>
+        <v>-6.5202202656052819</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.0466254183004509</v>
+        <v>27.210072575243949</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9379360655945632</v>
+        <v>26.858281061230038</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>-27.297278083691157</v>
+        <v>-12.332805728704862</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>26.892262736988336</v>
+        <v>-14.957672179517072</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0454401265852873</v>
+        <v>-24.995434405397805</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.65694330149568</v>
+        <v>21.537926000561747</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>11.852374288573664</v>
+        <v>-23.375952464449639</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.4222093480678524</v>
+        <v>-20.742667387300216</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.874130047025531</v>
+        <v>9.9311911365898027</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>-29.813988639409345</v>
+        <v>-7.6264273013951609</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4017583162622635</v>
+        <v>1.1221158149695434</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>28.365509796302099</v>
+        <v>-24.747219633033147</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>22.606165127940493</v>
+        <v>-23.744003857161111</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0212859301902846</v>
+        <v>5.3829760928394421E-3</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="1"/>
-        <v>17.280223644971258</v>
+        <v>20.863290987179127</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="1"/>
-        <v>24.045452135415708</v>
+        <v>25.192274706358248</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.112389657449967</v>
+        <v>-13.910063164610435</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.977356673524028</v>
+        <v>-17.949335432209715</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0182765958722655</v>
+        <v>-22.347884858879986</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>11.247886005647374</v>
+        <v>-7.7642959007891541</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.998764543996806</v>
+        <v>-20.173906678928752</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.543644366618452</v>
+        <v>-2.8863159140501153</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>19.067709520805799</v>
+        <v>-5.6378103638135251</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8690355219025747</v>
+        <v>27.670737603991562</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.006429797098527</v>
+        <v>27.752238424216991</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="1"/>
-        <v>-25.021714798670775</v>
+        <v>-13.678515766240395</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.4389678026083814</v>
+        <v>-20.0957094573265</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>20.412471539712215</v>
+        <v>5.1762296981927278</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1756753392934414</v>
+        <v>8.2853215228343799</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0146248711282766</v>
+        <v>-25.69021058077066</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>12.557606860537014</v>
+        <v>-13.100730595530383</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.1090167426938322</v>
+        <v>-2.5945584412265603</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5810910044596369</v>
+        <v>-3.9262742297304634</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.0798065215238</v>
+        <v>-8.849293318483106</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="1"/>
-        <v>18.726042530043117</v>
+        <v>21.195350347639241</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="1"/>
-        <v>20.62793376077564</v>
+        <v>25.704166424136879</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.83388004305079</v>
+        <v>5.0191861599732732</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>4.809223692479911</v>
+        <v>-27.417419530060556</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.3232935694365828</v>
+        <v>0.95006616434912772</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>29.886246565343896</v>
+        <v>-18.507615371458115</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4347936741841991</v>
+        <v>-28.652088802588796</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>19.955685686224683</v>
+        <v>-21.738135164637221</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>24.181556347847341</v>
+        <v>15.125604437914063</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>-27.786695870747661</v>
+        <v>-21.617926068467455</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6914426978063446</v>
+        <v>-19.347510031069227</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5237620307713158</v>
+        <v>19.05350758939138</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.396818590620615</v>
+        <v>27.889429158836634</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>17.091720332328627</v>
+        <v>-1.0305219429007515</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.008878947376278</v>
+        <v>16.808957169909426</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>-26.8326127668978</v>
+        <v>-7.1700635036027336</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.460975507270827</v>
+        <v>-11.078110308679843</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.25016442442771947</v>
+        <v>10.624546349652434</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1290585285891233</v>
+        <v>-6.0066620896070582</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.1042416527318935</v>
+        <v>-11.114728728835164</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="1"/>
-        <v>28.960651387850589</v>
+        <v>-21.946483435475159</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="1"/>
-        <v>14.993331058740523</v>
+        <v>25.416747317161224</v>
       </c>
     </row>
   </sheetData>
